--- a/tests/datasets/err_data_entry.xlsx
+++ b/tests/datasets/err_data_entry.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F629E90-D476-F944-BB26-BF9DA793568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844E7F7E-B983-1F40-88EF-C6D7A6CF9AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>This is an Excel workbook for data entry.</t>
   </si>
@@ -239,25 +239,10 @@
     <t>Okay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>OO</t>
-  </si>
-  <si>
-    <t>don't</t>
-  </si>
-  <si>
     <t>coseGlu</t>
   </si>
   <si>
     <t>Famr</t>
-  </si>
-  <si>
-    <t>rrrrr</t>
-  </si>
-  <si>
-    <t>ttt</t>
   </si>
   <si>
     <t>ewq</t>
@@ -266,10 +251,10 @@
     <t>wq</t>
   </si>
   <si>
-    <t>222wlewldeledlelelewlewlwl2211!!!!!!!#######</t>
+    <t>rr</t>
   </si>
   <si>
-    <t>BBBBBBBBBBBBBBB</t>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -737,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1297,13 +1282,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
@@ -1328,51 +1314,41 @@
         <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>IF(ISBLANK('Data Entry'!$A$2), "", 'Data Entry'!$A$2)</f>
-        <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
       <c r="D2">
         <f>IF(ISBLANK('Data Entry'!$D$3), "", 'Data Entry'!$D$3)</f>
         <v>123456789</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
-        <v>234516789</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <f>IF(ISBLANK('Data Entry'!$D$3), "", 'Data Entry'!$D$3)</f>
         <v>123456789</v>
       </c>
-      <c r="E3" t="s">
-        <v>75</v>
+      <c r="E3">
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
+        <v>234516789</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1382,55 +1358,36 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <f>IF(ISBLANK('Data Entry'!$A$4), "", 'Data Entry'!$A$4)</f>
-        <v>230</v>
-      </c>
-      <c r="C4" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$4), "", VLOOKUP('Data Entry'!$C$4, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v>S</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4">
-        <f>IF(ISBLANK('Data Entry'!$E$4), "", 'Data Entry'!$E$4)</f>
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
         <v>234516789</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
+        <v>234516789</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>IF(ISBLANK('Data Entry'!$A$5), "", 'Data Entry'!$A$5)</f>
-        <v>130</v>
-      </c>
-      <c r="C6" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$5), "", VLOOKUP('Data Entry'!$C$5, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v>B</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
+      <c r="E6">
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
+        <v>234516789</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$6), "", VLOOKUP('Data Entry'!$C$6, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v>B</v>
-      </c>
       <c r="D7">
         <f>IF(ISBLANK('Data Entry'!$D$6), "", 'Data Entry'!$D$6)</f>
         <v>123456789</v>
       </c>
       <c r="E7">
-        <f>IF(ISBLANK('Data Entry'!$E$6), "", 'Data Entry'!$E$6)</f>
+        <f>IF(ISBLANK('Data Entry'!$E$2), "", 'Data Entry'!$E$2)</f>
         <v>234516789</v>
       </c>
       <c r="F7" t="s">
@@ -1446,9 +1403,8 @@
         <f>IF(ISBLANK('Data Entry'!$B$7), "", 'Data Entry'!$B$7)</f>
         <v/>
       </c>
-      <c r="C8" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$7), "", VLOOKUP('Data Entry'!$C$7, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v/>
+      <c r="C8" t="s">
+        <v>73</v>
       </c>
       <c r="D8" t="str">
         <f>IF(ISBLANK('Data Entry'!$D$7), "", 'Data Entry'!$D$7)</f>
@@ -1468,10 +1424,6 @@
         <f>IF(ISBLANK('Data Entry'!$B$8), "", 'Data Entry'!$B$8)</f>
         <v/>
       </c>
-      <c r="C9" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$8), "", VLOOKUP('Data Entry'!$C$8, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v/>
-      </c>
       <c r="D9" t="str">
         <f>IF(ISBLANK('Data Entry'!$D$8), "", 'Data Entry'!$D$8)</f>
         <v/>
@@ -1490,10 +1442,6 @@
         <f>IF(ISBLANK('Data Entry'!$B$9), "", 'Data Entry'!$B$9)</f>
         <v/>
       </c>
-      <c r="C10" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$9), "", VLOOKUP('Data Entry'!$C$9, 'Schema Description'!$A$40:$B$41, 2))</f>
-        <v/>
-      </c>
       <c r="D10" t="str">
         <f>IF(ISBLANK('Data Entry'!$D$9), "", 'Data Entry'!$D$9)</f>
         <v/>
@@ -1510,10 +1458,6 @@
       </c>
       <c r="B11" t="str">
         <f>IF(ISBLANK('Data Entry'!$B$10), "", 'Data Entry'!$B$10)</f>
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <f>IF(ISBLANK('Data Entry'!$C$10), "", VLOOKUP('Data Entry'!$C$10, 'Schema Description'!$A$40:$B$41, 2))</f>
         <v/>
       </c>
       <c r="D11" t="str">
